--- a/source/column_and_variable_names/variable_names.xlsx
+++ b/source/column_and_variable_names/variable_names.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B832"/>
+  <dimension ref="A1:B834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,5808 +379,5832 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>_Female</t>
+          <t>_BaseMin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Base</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>_Inanotherway</t>
+          <t>_Female</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>_Male</t>
+          <t>_Inanotherway</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>_Refused</t>
+          <t>_Male</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>£0-£6,000</t>
+          <t>_Refused</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>£0 - £6000</t>
+          <t>£0-£6,000</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>£10,001-£15,000</t>
+          <t>£0 - £6000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>£10001 -£15000</t>
+          <t>£10,001-£15,000</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>£15,001-£20,000</t>
+          <t>£10001 -£15000</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>£15001 - £20000</t>
+          <t>£15,001-£20,000</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>£20,001-£25,000</t>
+          <t>£15001 - £20000</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>£20001 - £25000</t>
+          <t>£20,001-£25,000</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>£25,001-£30,000</t>
+          <t>£20001 - £25000</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>£25001 - £30000</t>
+          <t>£25,001-£30,000</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>£30,001-£35,000</t>
+          <t>£25001 - £30000</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>£30001 - £40000</t>
+          <t>£30,001-£35,000</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>£35,001-£40,000</t>
+          <t>£30001 - £40000</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>£40,001-£50,000</t>
+          <t>£35,001-£40,000</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>£40001+</t>
+          <t>£40,001-£50,000</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>£50,001-£60,000</t>
+          <t>£40001+</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>£6,001-£10,000</t>
+          <t>£50,001-£60,000</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>£60,001-£70,000</t>
+          <t>£6,001-£10,000</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>£6001 - £10000</t>
+          <t>£60,001-£70,000</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>£70,001-£80,000</t>
+          <t>£6001 - £10000</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>£70,001-£80,000</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0-15</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0-15</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1-3 years</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1 - Most Deprived</t>
+          <t>1-3 years</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1 to 2 years</t>
+          <t>1 - Most Deprived</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1 to 2 years</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11 minute walk or more</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11 to 15 hours</t>
+          <t>11 minute walk or more</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11 to 20 years</t>
+          <t>11 to 15 hours</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>16-24</t>
+          <t>11 to 20 years</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16-39</t>
+          <t>16-24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16 to 20 hours</t>
+          <t>16-39</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16 to 34</t>
+          <t>16 to 20 hours</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16to24</t>
+          <t>16 to 34</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16to24</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2. Libraries All</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2. Libraries Base</t>
+          <t>2. Libraries All</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2. Libraries Neither satisfied or dissatisfied</t>
+          <t>2. Libraries Base</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2. Libraries No opinion</t>
+          <t>2. Libraries Neither satisfied or dissatisfied</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2. Libraries Very/fairly dissatisfied</t>
+          <t>2. Libraries No opinion</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2. Libraries Very/fairly satisfied</t>
+          <t>2. Libraries Very/fairly dissatisfied</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20% least deprived</t>
+          <t>2. Libraries Very/fairly satisfied</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20% least deprived satisfaction</t>
+          <t>20% least deprived</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20% least deprived use</t>
+          <t>20% least deprived satisfaction</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20% least deprived visits once a week or more</t>
+          <t>20% least deprived use</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20% most deprived</t>
+          <t>20% least deprived visits once a week or more</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20% most deprived satisfaction</t>
+          <t>20% most deprived</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20% most deprived use</t>
+          <t>20% most deprived satisfaction</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20% most deprived visits once a week or more</t>
+          <t>20% most deprived use</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>20% most deprived visits once a week or more</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2013 - All</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2013 - Base</t>
+          <t>2013 - All</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2013 - Climate change is an immediate and urgent problem</t>
+          <t>2013 - Base</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2013 - Climate change is more of a problem for the futur</t>
+          <t>2013 - Climate change is an immediate and urgent problem</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2013 - Climate change is not really a problem</t>
+          <t>2013 - Climate change is more of a problem for the futur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2013 - Don't know</t>
+          <t>2013 - Climate change is not really a problem</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2013 - I'm still not convinced that climate change is ha</t>
+          <t>2013 - Don't know</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2013 - None of these</t>
+          <t>2013 - I'm still not convinced that climate change is ha</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013 - None of these</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2014 - All</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2014 - Base</t>
+          <t>2014 - All</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2014 - Climate change is an immediate and urgent problem</t>
+          <t>2014 - Base</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2014 - Climate change is more of a problem for the futur</t>
+          <t>2014 - Climate change is an immediate and urgent problem</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2014 - Climate change is not really a problem</t>
+          <t>2014 - Climate change is more of a problem for the futur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2014 - Don't know</t>
+          <t>2014 - Climate change is not really a problem</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2014 - I'm still not convinced that climate change is ha</t>
+          <t>2014 - Don't know</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2014 - None of these</t>
+          <t>2014 - I'm still not convinced that climate change is ha</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014 - None of these</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2015 - All</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2015 - Base</t>
+          <t>2015 - All</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2015 - Climate change is an immediate and urgent problem</t>
+          <t>2015 - Base</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2015 - Climate change is more of a problem for the futur</t>
+          <t>2015 - Climate change is an immediate and urgent problem</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2015 - Climate change is not really a problem</t>
+          <t>2015 - Climate change is more of a problem for the futur</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2015 - Don't know</t>
+          <t>2015 - Climate change is not really a problem</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2015 - I'm still not convinced that climate change is ha</t>
+          <t>2015 - Don't know</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2015 - No</t>
+          <t>2015 - I'm still not convinced that climate change is ha</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2015 - None of these</t>
+          <t>2015 - No</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2015 - Yes</t>
+          <t>2015 - None of these</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015 - Yes</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2016 - All</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2016 - Base</t>
+          <t>2016 - All</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2016 - Climate change is an immediate and urgent problem</t>
+          <t>2016 - Base</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2016 - Climate change is more of a problem for the futur</t>
+          <t>2016 - Climate change is an immediate and urgent problem</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2016 - Climate change is not really a problem</t>
+          <t>2016 - Climate change is more of a problem for the futur</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2016 - Don't know</t>
+          <t>2016 - Climate change is not really a problem</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2016 - I'm still not convinced that climate change is ha</t>
+          <t>2016 - Don't know</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2016 - None of these</t>
+          <t>2016 - I'm still not convinced that climate change is ha</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016 - None of these</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2017 - All</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2017 - Base</t>
+          <t>2017 - All</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2017 - Climate change is an immediate and urgent problem</t>
+          <t>2017 - Base</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2017 - Climate change is more of a problem for the futur</t>
+          <t>2017 - Climate change is an immediate and urgent problem</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2017 - Climate change is not really a problem</t>
+          <t>2017 - Climate change is more of a problem for the futur</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2017 - Don't know</t>
+          <t>2017 - Climate change is not really a problem</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2017 - I'm still not convinced that climate change is ha</t>
+          <t>2017 - Don't know</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2017 - No</t>
+          <t>2017 - I'm still not convinced that climate change is ha</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2017 - None of these</t>
+          <t>2017 - No</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2017 - Yes</t>
+          <t>2017 - None of these</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017 - Yes</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2018 - All</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2018 - Base</t>
+          <t>2018 - All</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2018 - Climate change is an immediate and urgent problem</t>
+          <t>2018 - Base</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2018 - Climate change is more of a problem for the futur</t>
+          <t>2018 - Climate change is an immediate and urgent problem</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2018 - Climate change is not really a problem</t>
+          <t>2018 - Climate change is more of a problem for the futur</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2018 - Don't know</t>
+          <t>2018 - Climate change is not really a problem</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2018 - I'm still not convinced that climate change is ha</t>
+          <t>2018 - Don't know</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2018 - No</t>
+          <t>2018 - I'm still not convinced that climate change is ha</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2018 - None of these</t>
+          <t>2018 - No</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2018 - Yes</t>
+          <t>2018 - None of these</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>21 to 35 hours</t>
+          <t>2018 - Yes</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>21 to 35 hours</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>25to34</t>
+          <t>25-34</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25to34</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3-5 years</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3 to 4 years</t>
+          <t>3-5 years</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3. Museum All</t>
+          <t>3 to 4 years</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3. Museum Base</t>
+          <t>3. Museum All</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3. Museum Neither satisfied or dissatisfied</t>
+          <t>3. Museum Base</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3. Museum No opinion</t>
+          <t>3. Museum Neither satisfied or dissatisfied</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3. Museum Very/fairly dissatisfied</t>
+          <t>3. Museum No opinion</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3. Museum Very/fairly satisfied</t>
+          <t>3. Museum Very/fairly dissatisfied</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3+</t>
+          <t>3. Museum Very/fairly satisfied</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>3+</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>3060</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>35000.099609375</t>
+          <t>35-44</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>35to44</t>
+          <t>35000.099609375</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>36 hours or more</t>
+          <t>35to44</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36 hours or more</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>4. Theatres All</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>4. Theatres Base</t>
+          <t>4. Theatres All</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>4. Theatres Neither satisfied or dissatisfied</t>
+          <t>4. Theatres Base</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>4. Theatres No opinion</t>
+          <t>4. Theatres Neither satisfied or dissatisfied</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>4. Theatres Very/fairly dissatisfied</t>
+          <t>4. Theatres No opinion</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>4. Theatres Very/fairly satisfied</t>
+          <t>4. Theatres Very/fairly dissatisfied</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>4. Theatres Very/fairly satisfied</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>45-59</t>
+          <t>40-59</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>45to59</t>
+          <t>45-59</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>5 - Least Deprived</t>
+          <t>45to59</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>5 to 10 years</t>
+          <t>5 - Least Deprived</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5 to 10 years</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>6-10 minutes</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>6-10 years</t>
+          <t>6-10 minutes</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6 to 10 hours</t>
+          <t>6-10 years</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>60-74</t>
+          <t>6 to 10 hours</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>60+</t>
+          <t>60-74</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>60to74</t>
+          <t>60+</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>60to74</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>75+</t>
+          <t>75</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>75+</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>a .Owner Occupier</t>
+          <t>999999</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A caravan, mobile home or a houseboat</t>
+          <t>a .Owner Occupier</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A few times a year/vey rarely</t>
+          <t>A caravan, mobile home or a houseboat</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A flat, maisonette or apartment (including four-in-a-block or conversion)</t>
+          <t>A few times a year/vey rarely</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A games console/PS2/xBox</t>
+          <t>A flat, maisonette or apartment (including four-in-a-block or conversion)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A government/council office</t>
+          <t>A games console/PS2/xBox</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A house or bungalow</t>
+          <t>A government/council office</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A personal computer or laptop</t>
+          <t>A house or bungalow</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A room or rooms</t>
+          <t>A personal computer or laptop</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A tablet - iPad/Playbook or similar</t>
+          <t>A room or rooms</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>a. (RandId) All</t>
+          <t>A tablet - iPad/Playbook or similar</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>a. (RandId) Gay/Lesbian/Bisexual</t>
+          <t>a. (RandId) All</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>a. (RandId) Heterosexual/Straight</t>
+          <t>a. (RandId) Gay/Lesbian/Bisexual</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>a. (RandId) Other</t>
+          <t>a. (RandId) Heterosexual/Straight</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>a. (RandId) Refused</t>
+          <t>a. (RandId) Other</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>a. 0 cars</t>
+          <t>a. (RandId) Refused</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>a. 1 bedroom</t>
+          <t>a. 0 cars</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>a. 1 person</t>
+          <t>a. 1 bedroom</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>a. 16-24</t>
+          <t>a. 1 person</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>a. 16-34</t>
+          <t>a. 16-24</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>a. house</t>
+          <t>a. 16-34</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>a. Owner Occupier</t>
+          <t>a. house</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>a. White Scottish</t>
+          <t>a. Owner Occupier</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AbandonedBurnt</t>
+          <t>a. White Scottish</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Aberdeen City</t>
+          <t>AbandonedBurnt</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Aberdeenshire</t>
+          <t>Aberdeen City</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>About once a week</t>
+          <t>Aberdeenshire</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Access services like report a fault, renew library books, planning applications</t>
+          <t>About once a week</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Accessible rural</t>
+          <t>Access services like report a fault, renew library books, planning applications</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Accessible small towns</t>
+          <t>Accessible rural</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Accessing information about public servuces (e.g. bus timetables)</t>
+          <t>Accessible small towns</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Accessing online learning resources</t>
+          <t>Accessing information about public servuces (e.g. bus timetables)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Adult guidance, advice and learning</t>
+          <t>Accessing online learning resources</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AdviceSupport</t>
+          <t>Adult guidance, advice and learning</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>African</t>
+          <t>AdviceSupport</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>African</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>All1</t>
+          <t>All</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>All10</t>
+          <t>All1</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>All11</t>
+          <t>All10</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>All12</t>
+          <t>All11</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>All13</t>
+          <t>All12</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>All14</t>
+          <t>All13</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>All15</t>
+          <t>All14</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>All16</t>
+          <t>All15</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>All17</t>
+          <t>All16</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>All18</t>
+          <t>All17</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>All19</t>
+          <t>All18</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>All2</t>
+          <t>All19</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>All20</t>
+          <t>All2</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>All21</t>
+          <t>All20</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>All22</t>
+          <t>All21</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>All23</t>
+          <t>All22</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>All24</t>
+          <t>All23</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>All25</t>
+          <t>All24</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>All26</t>
+          <t>All25</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>All27</t>
+          <t>All26</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>All28</t>
+          <t>All27</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>All29</t>
+          <t>All28</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>All3</t>
+          <t>All29</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>All30</t>
+          <t>All3</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>All31</t>
+          <t>All30</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>All32</t>
+          <t>All31</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>All33</t>
+          <t>All32</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>All34</t>
+          <t>All33</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>All35</t>
+          <t>All34</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>All36</t>
+          <t>All35</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>All37</t>
+          <t>All36</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>All38</t>
+          <t>All37</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>All39</t>
+          <t>All38</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>All4</t>
+          <t>All39</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>All40</t>
+          <t>All4</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>All41</t>
+          <t>All40</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>All42</t>
+          <t>All41</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>All43</t>
+          <t>All42</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>All44</t>
+          <t>All43</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>All45</t>
+          <t>All44</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>All46</t>
+          <t>All45</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>All47</t>
+          <t>All46</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>All48</t>
+          <t>All47</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>All49</t>
+          <t>All48</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>All5</t>
+          <t>All49</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>All50</t>
+          <t>All5</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>All51</t>
+          <t>All50</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>All52</t>
+          <t>All51</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>All53</t>
+          <t>All52</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>All54</t>
+          <t>All53</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>All55</t>
+          <t>All54</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>All56</t>
+          <t>All55</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>All57</t>
+          <t>All56</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>All58</t>
+          <t>All57</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>All59</t>
+          <t>All58</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>All6</t>
+          <t>All59</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>All60</t>
+          <t>All6</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>All61</t>
+          <t>All60</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>All62</t>
+          <t>All61</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>All63</t>
+          <t>All62</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>All64</t>
+          <t>All63</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>All65</t>
+          <t>All64</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>All66</t>
+          <t>All65</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>All7</t>
+          <t>All66</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>All8</t>
+          <t>All7</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>All9</t>
+          <t>All8</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>All9</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Animal welfare</t>
+          <t>Angus</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AnimalNuisance</t>
+          <t>Animal welfare</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Another reason</t>
+          <t>AnimalNuisance</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Another religion</t>
+          <t>Another reason</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Another way</t>
+          <t>Another religion</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Anotherway</t>
+          <t>Another way</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Any Mixed or Multiple Ethnic Groups</t>
+          <t>Anotherway</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Any other health problems or disability</t>
+          <t>Any Mixed or Multiple Ethnic Groups</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Any volunteering</t>
+          <t>Any other health problems or disability</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>AnyCulture</t>
+          <t>Any volunteering</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AnyCultureNoReading</t>
+          <t>AnyCulture</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>AnyExclCinema</t>
+          <t>AnyCultureNoReading</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AnyExclReading</t>
+          <t>AnyExclCinema</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>AnyInclCinem</t>
+          <t>AnyExclReading</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>AnyInclReading</t>
+          <t>AnyInclCinem</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Apply for a job</t>
+          <t>AnyInclReading</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Apply for funding (housing benefit, legal aid or student funding)</t>
+          <t>Apply for a job</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ArchiveOffice</t>
+          <t>Apply for funding (housing benefit, legal aid or student funding)</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Argyll and Bute</t>
+          <t>ArchiveOffice</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ArtGallery</t>
+          <t>Argyll and Bute</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ArtSculpture</t>
+          <t>ArtGallery</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>asb1a_com</t>
+          <t>ArtSculpture</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>asb1b_com</t>
+          <t>asb1a_com</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>asb1c_com</t>
+          <t>asb1b_com</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>asb1d_com</t>
+          <t>asb1c_com</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>asb1e_com</t>
+          <t>asb1d_com</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>asb1f_com</t>
+          <t>asb1e_com</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>asb1g_com</t>
+          <t>asb1f_com</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>asb1h_com</t>
+          <t>asb1g_com</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>asb1i_com</t>
+          <t>asb1h_com</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Asian, Asian Scottish or Asian British</t>
+          <t>asb1i_com</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Ask a question</t>
+          <t>Asian, Asian Scottish or Asian British</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Assistance from relative/friend/neighbour</t>
+          <t>Ask a question</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>At another person's home</t>
+          <t>Assistance from relative/friend/neighbour</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>At home</t>
+          <t>At another person's home</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>At least once a month</t>
+          <t>At home</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>At least once a week</t>
+          <t>At least once a month</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>At least once a year</t>
+          <t>At least once a week</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>At school</t>
+          <t>At least once a year</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>At work</t>
+          <t>At school</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Attended a public meeting/ community council meeting</t>
+          <t>At work</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>b. (Ethn) All</t>
+          <t>Attended a public meeting/ community council meeting</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>b. (Ethn) Other ethnic minority g</t>
+          <t>b. (Ethn) All</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>b. (Ethn) Refused</t>
+          <t>b. (Ethn) Other ethnic minority g</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>b. (Ethn) White</t>
+          <t>b. (Ethn) Refused</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>b. 1 car</t>
+          <t>b. (Ethn) White</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>b. 2 bedrooms</t>
+          <t>b. 1 car</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>b. 2 people</t>
+          <t>b. 2 bedrooms</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>b. 25-34</t>
+          <t>b. 2 people</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>b. 35-59</t>
+          <t>b. 25-34</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>b. flat</t>
+          <t>b. 35-59</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>b. Owned outright</t>
+          <t>b. flat</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>b. Private rent</t>
+          <t>b. Owned outright</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>b. White other British</t>
+          <t>b. Private rent</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Base</t>
+          <t>b. White other British</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Bath/shower difficult to access/use</t>
+          <t>Base</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BatteryWindRadioAll</t>
+          <t>BaseMin</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Base</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BatteryWindRadioBase</t>
+          <t>Bath/shower difficult to access/use</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BatteryWindRadioDon't kno</t>
+          <t>BatteryWindRadioAll</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BatteryWindRadioNo</t>
+          <t>BatteryWindRadioBase</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BatteryWindRadioYes</t>
+          <t>BatteryWindRadioDon't kno</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Be able to tell what websites to trust</t>
+          <t>BatteryWindRadioNo</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Been involved with interest group or campaign</t>
+          <t>BatteryWindRadioYes</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Between 1 and 5 hours</t>
+          <t>Be able to tell what websites to trust</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Bisexual</t>
+          <t>Been involved with interest group or campaign</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BookFest</t>
+          <t>Between 1 and 5 hours</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Both formal and informal volunteer</t>
+          <t>Bisexual</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Buy goods or services</t>
+          <t>BookFest</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>c. (Relig) All</t>
+          <t>Both formal and informal volunteer</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>c. (Relig) Another religion</t>
+          <t>Buy goods or services</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>c. (Relig) Church of Scotland</t>
+          <t>c. (Relig) All</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>c. (Relig) None</t>
+          <t>c. (Relig) Another religion</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>c. (Relig) Other Christian</t>
+          <t>c. (Relig) Church of Scotland</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>c. (Relig) Roman Catholic</t>
+          <t>c. (Relig) None</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>c. 2+ cars</t>
+          <t>c. (Relig) Other Christian</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>c. 3 bedrooms</t>
+          <t>c. (Relig) Roman Catholic</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>c. 3 people</t>
+          <t>c. 2+ cars</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>c. 35-44</t>
+          <t>c. 3 bedrooms</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>c. 60+</t>
+          <t>c. 3 people</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>c. Buying with help of loan/mortgage</t>
+          <t>c. 35-44</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>c. other</t>
+          <t>c. 60+</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>c. Social Sector</t>
+          <t>c. Buying with help of loan/mortgage</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>c. White Polish</t>
+          <t>c. other</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Can't afford current housing/Would like cheaper housing</t>
+          <t>c. Social Sector</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Can't get into/use garden</t>
+          <t>c. White Polish</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Can't get up/down stairs inside house</t>
+          <t>Can't afford current housing/Would like cheaper housing</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Can't leave house because of stairs to house</t>
+          <t>Can't get into/use garden</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Can't open windows</t>
+          <t>Can't get up/down stairs inside house</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Cannot afford mortgage/rent payments</t>
+          <t>Can't leave house because of stairs to house</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Cannot obtain a mortgage</t>
+          <t>Can't open windows</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Cannot raise sufficient deposit</t>
+          <t>Cannot afford mortgage/rent payments</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Caribbean or Black</t>
+          <t>Cannot obtain a mortgage</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Change in family/hhold circs/left home</t>
+          <t>Cannot raise sufficient deposit</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Cheaper property</t>
+          <t>Caribbean or Black</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Children's activities associated with schools</t>
+          <t>Change in family/hhold circs/left home</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Children’s education and schools</t>
+          <t>Cheaper property</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Church of Scotland</t>
+          <t>Children's activities associated with schools</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Cinema</t>
+          <t>Children’s education and schools</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Citizens groups</t>
+          <t>Church of Scotland</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Clackmannanshire</t>
+          <t>Cinema</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ClassicalMusic</t>
+          <t>Citizens groups</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Climate change is an immediate and urgent problem</t>
+          <t>Clackmannanshire</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Climate change is more of a problem for the future</t>
+          <t>ClassicalMusic</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Climate change is not really a problem</t>
+          <t>Climate change is an immediate and urgent problem</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Community or voluntary centre/organisation</t>
+          <t>Climate change is more of a problem for the future</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ComputerArtworkAnimation</t>
+          <t>Climate change is not really a problem</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Connecting with healthcare services (e.g. making appointments, ordering prescriptions)</t>
+          <t>Community or voluntary centre/organisation</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Contacted an MP, MSP or Local Councillor</t>
+          <t>ComputerArtworkAnimation</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Control privacy settings online</t>
+          <t>Connecting with healthcare services (e.g. making appointments, ordering prescriptions)</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Crafts</t>
+          <t>Contacted an MP, MSP or Local Councillor</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Create websites or blogs</t>
+          <t>Control privacy settings online</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>CreativeWork</t>
+          <t>Crafts</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>CreativeWriting</t>
+          <t>Create websites or blogs</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>CulturallySpecificFestival</t>
+          <t>CreativeWork</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Culture and heritage</t>
+          <t>CreativeWriting</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>CulturSpecFest</t>
+          <t>CulturallySpecificFestival</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Cupboards/shelves are difficult to reach/use</t>
+          <t>Culture and heritage</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>d. (RG5A) All</t>
+          <t>CulturSpecFest</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>d. (RG5A) Don't know</t>
+          <t>Cupboards/shelves are difficult to reach/use</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>d. (RG5A) No</t>
+          <t>d. (RG5A) All</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>d. (RG5A) Refusal</t>
+          <t>d. (RG5A) Don't know</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>d. (RG5A) Yes</t>
+          <t>d. (RG5A) No</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>d. 4+ bedrooms</t>
+          <t>d. (RG5A) Refusal</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>d. 4+ people</t>
+          <t>d. (RG5A) Yes</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>d. 45-59</t>
+          <t>d. 4+ bedrooms</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>d. Other</t>
+          <t>d. 4+ people</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>d. Private Rented</t>
+          <t>d. 45-59</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>d. Social Rent</t>
+          <t>d. Other</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>d. White other</t>
+          <t>d. Private Rented</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Dance</t>
+          <t>d. Social Rent</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>DanceShowEvent</t>
+          <t>d. White other</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Day care/day centre (in hospital, residential home or other organisation)</t>
+          <t>Dance</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Degree, Professional Qualification</t>
+          <t>DanceShowEvent</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Difficulty answering/opening door</t>
+          <t>Day care/day centre (in hospital, residential home or other organisation)</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Digital, cable or satellite television</t>
+          <t>Degree, Professional Qualification</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Divorced/Seperated</t>
+          <t>Difficulty answering/opening door</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Does not manage well</t>
+          <t>Digital, cable or satellite television</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Does not use</t>
+          <t>Divorced/Seperated</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Domestic animal welfare</t>
+          <t>Does not manage well</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Don't know</t>
+          <t>Does not use</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Don't Know</t>
+          <t>Domestic animal welfare</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Don't know (Spontaneous only)</t>
+          <t>Don't know</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Don't know*</t>
+          <t>Don't Know</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Don't know/refused</t>
+          <t>Don't know (Spontaneous only)</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Dont know</t>
+          <t>Don't know*</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Dont Know</t>
+          <t>Don't know/refused</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Door entry phone</t>
+          <t>Dont know</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Door widening</t>
+          <t>Dont Know</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Doors too narrow</t>
+          <t>Door entry phone</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Download forms</t>
+          <t>Door widening</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>DrugsMisuse</t>
+          <t>Doors too narrow</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Dumfries and Galloway</t>
+          <t>Download forms</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Dundee City</t>
+          <t>DrugsMisuse</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>e. 60-74</t>
+          <t>Dumfries and Galloway</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>e. Any Mixed or Multiple Ethnic Groups</t>
+          <t>Dundee City</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>e. Private Rent</t>
+          <t>e. 60-74</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>e. Rent – LA</t>
+          <t>e. Any Mixed or Multiple Ethnic Groups</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>e. Social Rent – Local authority</t>
+          <t>e. Private Rent</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>East Ayrshire</t>
+          <t>e. Rent – LA</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>East Dunbartonshire</t>
+          <t>e. Social Rent – Local authority</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>East Lothian</t>
+          <t>East Ayrshire</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>East Renfrewshire</t>
+          <t>East Dunbartonshire</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>East Lothian</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Education for adults</t>
+          <t>East Renfrewshire</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Electric lights/sockets are difficult to reach/use</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Emergency services, first aid and public safety</t>
+          <t>Education for adults</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Employed full time</t>
+          <t>Electric lights/sockets are difficult to reach/use</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Employed part time</t>
+          <t>Emergency services, first aid and public safety</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Employer support (flexible working, options for time away from work)</t>
+          <t>Employed full time</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Environmental protection</t>
+          <t>Employed part time</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Exhibition</t>
+          <t>Employer support (flexible working, options for time away from work)</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Extension to meet disabled person's needs</t>
+          <t>Environmental protection</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>f. Asian, Asian Scottish or Asian British</t>
+          <t>Exhibition</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>f. Other</t>
+          <t>Extension to meet disabled person's needs</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>f. Rent - HA, Co-op</t>
+          <t>f. Asian, Asian Scottish or Asian British</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>f. Social Rent - Housing association/Co-op/Charitable trust</t>
+          <t>f. Other</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Fairly dissatisfied</t>
+          <t>f. Rent - HA, Co-op</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Fairly good</t>
+          <t>f. Social Rent - Housing association/Co-op/Charitable trust</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Fairly poor</t>
+          <t>Fairly dissatisfied</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Fairly satisfied</t>
+          <t>Fairly good</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Fairly strongly</t>
+          <t>Fairly poor</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Fairly satisfied</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Fairly strongly</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Fife</t>
+          <t>Falkirk</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>FilmMaking</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Finding information about personal interests</t>
+          <t>Fife</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Finding more jobs and applying quickly</t>
+          <t>FilmMaking</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>FirstAidKitAll</t>
+          <t>Finding information about personal interests</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>FirstAidKitBase</t>
+          <t>Finding more jobs and applying quickly</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>FirstAidKitDon't know</t>
+          <t>FirstAidKitAll</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>FirstAidKitNo</t>
+          <t>FirstAidKitBase</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>FirstAidKitYes</t>
+          <t>FirstAidKitDon't know</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>g. 75+</t>
+          <t>FirstAidKitNo</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>g. African, Caribbean or Black</t>
+          <t>FirstAidKitYes</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>g. Other</t>
+          <t>g. 75+</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>g. Private Rented</t>
+          <t>g. African, Caribbean or Black</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Gallery</t>
+          <t>g. Other</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Gay/Lesbian</t>
+          <t>g. Private Rented</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Gets by</t>
+          <t>Gallery</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Given it no thought</t>
+          <t>Gay/Lesbian</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Glasgow City</t>
+          <t>Gets by</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Good schools</t>
+          <t>Given it no thought</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Good services/amenities</t>
+          <t>Glasgow City</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Good transport</t>
+          <t>Good schools</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Government work or training scheme</t>
+          <t>Good services/amenities</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Government work/training scheme</t>
+          <t>Good transport</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Groups</t>
+          <t>Government work or training scheme</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Groups aimed at supporting older people</t>
+          <t>Government work/training scheme</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>h. In parental/family home</t>
+          <t>Groups</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>h. Other Ethnic Group</t>
+          <t>Groups aimed at supporting older people</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>h. Private Rented - Private landlord</t>
+          <t>h. In parental/family home</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Had discussions with a landowner/land-manager</t>
+          <t>h. Other Ethnic Group</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Handrails</t>
+          <t>h. Private Rented - Private landlord</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Health reasons, incl move to bungalow/flat</t>
+          <t>Had discussions with a landowner/land-manager</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Health, disability and social welfare</t>
+          <t>Handrails</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Health, disability and wellbeing</t>
+          <t>Health reasons, incl move to bungalow/flat</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Heating controls are difficult to reach/use</t>
+          <t>Health, disability and social welfare</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Help with shopping</t>
+          <t>Health, disability and wellbeing</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Heterosexual/Straight</t>
+          <t>Heating controls are difficult to reach/use</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Higher, A level or equivalent</t>
+          <t>Help with shopping</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Higher/Further education</t>
+          <t>Heterosexual/Straight</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Highland</t>
+          <t>Higher, A level or equivalent</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>HistoricalPlace</t>
+          <t>Higher/Further education</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>HistoricPlace</t>
+          <t>Highland</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>HNC/HND or equivalent</t>
+          <t>HistoricalPlace</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Hobbies / recreation / arts / social clubs</t>
+          <t>HistoricPlace</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Hobbies and recreation</t>
+          <t>HNC/HND or equivalent</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Home care worker (helping with washing/bathing, dressing, toilet)</t>
+          <t>Hobbies / recreation / arts / social clubs</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Home care worker/home help (helping with housework, cooking, cleaning)</t>
+          <t>Hobbies and recreation</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Housing Association Rent</t>
+          <t>Home care worker (helping with washing/bathing, dressing, toilet)</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>I'm still not convinced that climate change is happening</t>
+          <t>Home care worker/home help (helping with housework, cooking, cleaning)</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>i. Don't know</t>
+          <t>Housing Association Rent</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>i. Private Rented - Family/Friends/Employer</t>
+          <t>I'm still not convinced that climate change is happening</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>IdentifiedinanotherwayInWork</t>
+          <t>i. Don't know</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Identify and delete spam</t>
+          <t>i. Private Rented - Family/Friends/Employer</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>If I could do it with people I know</t>
+          <t>IdentifiedinanotherwayInWork</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>If I could volunteer when I felt like it</t>
+          <t>Identify and delete spam</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>If I had more confidence</t>
+          <t>If I could do it with people I know</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>If I knew how my time/skills could help others</t>
+          <t>If I could volunteer when I felt like it</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>If I knew more about the opportunities available</t>
+          <t>If I had more confidence</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>If I knew my expenses would be paid</t>
+          <t>If I knew how my time/skills could help others</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>If I thought I could help others</t>
+          <t>If I knew more about the opportunities available</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>If I was certain that it wouldn't effect my benefits</t>
+          <t>If I knew my expenses would be paid</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>If I was sure I wouldn't be out of pocket</t>
+          <t>If I thought I could help others</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>If it fitted in with my interests and skills</t>
+          <t>If I was certain that it wouldn't effect my benefits</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>If it fitted in with my other commitments</t>
+          <t>If I was sure I wouldn't be out of pocket</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>If it helped me gain qualifications</t>
+          <t>If it fitted in with my interests and skills</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>If it was good fun</t>
+          <t>If it fitted in with my other commitments</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>If it would improve my career/job prospects</t>
+          <t>If it helped me gain qualifications</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>If it would improve my skills</t>
+          <t>If it was good fun</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>If someone asked me to do something</t>
+          <t>If it would improve my career/job prospects</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>If someone I knew volunteered with me</t>
+          <t>If it would improve my skills</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>If there were more people like me volunteering</t>
+          <t>If someone asked me to do something</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ImprtDocumentsAll</t>
+          <t>If someone I knew volunteered with me</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ImprtDocumentsBase</t>
+          <t>If there were more people like me volunteering</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ImprtDocumentsDon't know</t>
+          <t>ImprtDocumentsAll</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ImprtDocumentsNo</t>
+          <t>ImprtDocumentsBase</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ImprtDocumentsYes</t>
+          <t>ImprtDocumentsDon't know</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>In 5 minutes</t>
+          <t>ImprtDocumentsNo</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>In another way (if you would like to, please tell me what other words you use)</t>
+          <t>ImprtDocumentsYes</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>In further/higher education</t>
+          <t>In 5 minutes</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Individual alarm system</t>
+          <t>In another way (if you would like to, please tell me what other words you use)</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Information on and knowing it would not impact on my benefits</t>
+          <t>In further/higher education</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Information on available roles and how to get started</t>
+          <t>Individual alarm system</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Internet banking</t>
+          <t>Information on and knowing it would not impact on my benefits</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Internet user</t>
+          <t>Information on available roles and how to get started</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Inverclyde</t>
+          <t>Internet banking</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>j. Other</t>
+          <t>Internet user</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>j. Refused</t>
+          <t>Inverclyde</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Justice and human rights</t>
+          <t>j. Other</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Keeping in touch with family and friends at no extra cost</t>
+          <t>j. Refused</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Lack of suitable adapted/specialised accommodation for need</t>
+          <t>Justice and human rights</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Lack support/assistance</t>
+          <t>Keeping in touch with family and friends at no extra cost</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Large adult</t>
+          <t>Lack of suitable adapted/specialised accommodation for need</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Large family</t>
+          <t>Lack support/assistance</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Large urban areas</t>
+          <t>Large adult</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Larger</t>
+          <t>Large family</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Less often than once a month</t>
+          <t>Large urban areas</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Less than a year</t>
+          <t>Larger</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Less than once a month</t>
+          <t>Less often than once a month</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Less than once a week but at least once a month</t>
+          <t>Less than a year</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Less than one hour</t>
+          <t>Less than once a month</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Less than one year</t>
+          <t>Less than once a week but at least once a month</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>Less than one hour</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Like the area/nice area</t>
+          <t>Less than one year</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>LiveMusic</t>
+          <t>Library</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>LiveMusicEvent</t>
+          <t>Like the area/nice area</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Local Authority Rent</t>
+          <t>LiveMusic</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Local community or neighbourhood</t>
+          <t>LiveMusicEvent</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Local community or neighbourhood groups</t>
+          <t>Local Authority Rent</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Look for information</t>
+          <t>Local community or neighbourhood</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Look for/apply for jobs</t>
+          <t>Local community or neighbourhood groups</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>LookAfterHome</t>
+          <t>Look for information</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Looking after the home or family</t>
+          <t>Look for/apply for jobs</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Make a complaint</t>
+          <t>LookAfterHome</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Make a payment (council tax etc.)</t>
+          <t>Looking after the home or family</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Make telephone/video calls over the internet</t>
+          <t>Make a complaint</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Make a payment (council tax etc.)</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Man/Boy</t>
+          <t>Make telephone/video calls over the internet</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Manages well</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Managing and saving money (e.g. via online shopping and banking)</t>
+          <t>Man/Boy</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Married/civil partnership</t>
+          <t>Manages well</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Married/Civil partnership</t>
+          <t>Managing and saving money (e.g. via online shopping and banking)</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Meals delivered to home/meals on wheels</t>
+          <t>Married/civil partnership</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>Married/Civil partnership</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>MenInWork</t>
+          <t>Meals delivered to home/meals on wheels</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Midlothian</t>
+          <t>mean</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Mobile phone/iPhone/Smartphone</t>
+          <t>MenInWork</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Moray</t>
+          <t>Midlothian</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>More than 10 years</t>
+          <t>Mobile phone/iPhone/Smartphone</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>More than 20 years</t>
+          <t>Moray</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Most,almost all or all of the time</t>
+          <t>More than 10 years</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Move to the countryside/sea</t>
+          <t>More than 20 years</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Moved to sheltered housing/supported accommodation</t>
+          <t>Most,almost all or all of the time</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Museum</t>
+          <t>Move to the countryside/sea</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Na h-Eileanan Siar</t>
+          <t>Moved to sheltered housing/supported accommodation</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>NeighDisp</t>
+          <t>Museum</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Neither agree nor disagree</t>
+          <t>Na h-Eileanan Siar</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Neither satisfied nor dissatisfied</t>
+          <t>NeighDisp</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Neither agree nor disagree</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Night care (someone present at night only)</t>
+          <t>Neither satisfied nor dissatisfied</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Never</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>No – don't expect to move</t>
+          <t>Night care (someone present at night only)</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>No answer</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>No barrier</t>
+          <t>No – don't expect to move</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>No choice - allocated by council/HA, eviction</t>
+          <t>No answer</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>No opinion</t>
+          <t>No barrier</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>No qualifications</t>
+          <t>No choice - allocated by council/HA, eviction</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>No, not on a housing list</t>
+          <t>No opinion</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>NoisyParty</t>
+          <t>No qualifications</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>No, not on a housing list</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>NONE needed/provided*</t>
+          <t>NoisyParty</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>None of the above</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>None of these</t>
+          <t>NONE needed/provided*</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>None or almost none of the time</t>
+          <t>None of the above</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>None*</t>
+          <t>None of these</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>None/nothing</t>
+          <t>None or almost none of the time</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>North Ayrshire</t>
+          <t>None*</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>North Lanarkshire</t>
+          <t>None/nothing</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Not at all</t>
+          <t>North Ayrshire</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Not at all strongly</t>
+          <t>North Lanarkshire</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Not available/in limited supply where I want/have to live</t>
+          <t>Not at all</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Not very strongly</t>
+          <t>Not at all strongly</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Nothing</t>
+          <t>Not available/in limited supply where I want/have to live</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>O Grade, Standard Grade or equivalent</t>
+          <t>Not very strongly</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Occupational therapy/physiotherapy</t>
+          <t>Nothing</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Older smaller</t>
+          <t>O Grade, Standard Grade or equivalent</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>On the move via a mobile phone/smartphone/tablet</t>
+          <t>Occupational therapy/physiotherapy</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Once or more times a week</t>
+          <t>Older smaller</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>On the move via a mobile phone/smartphone/tablet</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Only Formally volunteer</t>
+          <t>Once or more times a week</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Only Informally volunteer</t>
+          <t>One</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Orkney</t>
+          <t>Only Formally volunteer</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Only Informally volunteer</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Other - Don't know</t>
+          <t>Orkney</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Other - Other (specify)</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Other - Refused</t>
+          <t>Other - Don't know</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Other (please specify)</t>
+          <t>Other - Other (specify)</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Other (Please specify)</t>
+          <t>Other - Refused</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Other (specify)</t>
+          <t>Other (please specify)</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Other Christian</t>
+          <t>Other (Please specify)</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Other Ethnic Group</t>
+          <t>Other (specify)</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Other ethnic minority groups</t>
+          <t>Other Christian</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Other qualification</t>
+          <t>Other Ethnic Group</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Other reason</t>
+          <t>Other ethnic minority groups</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Other than a personal computer or laptop</t>
+          <t>Other qualification</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Other urban areas</t>
+          <t>Other reason</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Other, please say what (specify)</t>
+          <t>Other than a personal computer or laptop</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>OtherCultural</t>
+          <t>Other urban areas</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Over £80,000</t>
+          <t>Other, please say what (specify)</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Owner occupied</t>
+          <t>OtherCultural</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Owner Occupier</t>
+          <t>Over £80,000</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Participate in a consultation</t>
+          <t>Owner occupied</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>PerformanceAudience</t>
+          <t>Owner Occupier</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Permanently retired from work</t>
+          <t>Participate in a consultation</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Permanently sick or disabled</t>
+          <t>PerformanceAudience</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Perth and Kinross</t>
+          <t>Permanently retired from work</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Photography</t>
+          <t>Permanently sick or disabled</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Physical activity, Sport and exercise (coaching, organising or helping out)</t>
+          <t>Perth and Kinross</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Play or download games, films or music</t>
+          <t>Photography</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>PlayInstrument</t>
+          <t>Physical activity, Sport and exercise (coaching, organising or helping out)</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Political groups</t>
+          <t>Play or download games, films or music</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Politics</t>
+          <t>PlayInstrument</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Practicalities of moving are too challenging/daunting</t>
+          <t>Political groups</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Pre school/Not yet at school</t>
+          <t>Politics</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Private Rent</t>
+          <t>Practicalities of moving are too challenging/daunting</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Private rented</t>
+          <t>Pre school/Not yet at school</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Public library</t>
+          <t>Private Rent</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>Qualifications not known</t>
+          <t>Private rented</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Ramps</t>
+          <t>Public library</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Read</t>
+          <t>Qualifications not known</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Refusal</t>
+          <t>Ramps</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Refused</t>
+          <t>Read</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Refused (spontaneous)</t>
+          <t>Refusal</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Refused/Don't know</t>
+          <t>Refused</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Religion and belief</t>
+          <t>Refused (spontaneous)</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Religious groups</t>
+          <t>Refused/Don't know</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Relocated light switches and power points</t>
+          <t>Religion and belief</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>RelyHelp</t>
+          <t>Religious groups</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Remote rural</t>
+          <t>Relocated light switches and power points</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Remote small towns</t>
+          <t>RelyHelp</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>Renfrewshire</t>
+          <t>Remote rural</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Report a crime</t>
+          <t>Remote small towns</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>Respite/short term care in residential/nursing home</t>
+          <t>Renfrewshire</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Responded to a planning application</t>
+          <t>Report a crime</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>Restricted movement/can't get around the house due to design/layout</t>
+          <t>Respite/short term care in residential/nursing home</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Right size/kind of property</t>
+          <t>Responded to a planning application</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Roman Catholic</t>
+          <t>Restricted movement/can't get around the house due to design/layout</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>Rooms too small</t>
+          <t>Right size/kind of property</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>RowdyBehav</t>
+          <t>Roman Catholic</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>RubbishLitter</t>
+          <t>Rooms too small</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Safety, first aid</t>
+          <t>RowdyBehav</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Same size as current</t>
+          <t>RubbishLitter</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>School, college, university, other educational institution</t>
+          <t>Safety, first aid</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Search for information</t>
+          <t>Same size as current</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Sectarian reasons</t>
+          <t>School, college, university, other educational institution</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Self employed</t>
+          <t>Search for information</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Send and receive e-mails</t>
+          <t>Sectarian reasons</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Send completed forms</t>
+          <t>Self employed</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Several times a week</t>
+          <t>Send and receive e-mails</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>SharedArtCreativeContentOnline</t>
+          <t>Send completed forms</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>Sheltered / Supported</t>
+          <t>Several times a week</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Shop online</t>
+          <t>SharedArtCreativeContentOnline</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>Signed a petition</t>
+          <t>Sheltered / Supported</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>SingingGroupChoir</t>
+          <t>Shop online</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Single adult</t>
+          <t>Signed a petition</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>Single parent</t>
+          <t>SingingGroupChoir</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Single pensioner</t>
+          <t>Single adult</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>Single, never been married/in civil partnership</t>
+          <t>Single parent</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Single, never married/in civil partnership</t>
+          <t>Single pensioner</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Small adult</t>
+          <t>Single, never been married/in civil partnership</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>Small family</t>
+          <t>Single, never married/in civil partnership</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Smaller</t>
+          <t>Small adult</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>Social rented</t>
+          <t>Small family</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>social3_01</t>
+          <t>Smaller</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>social3_02</t>
+          <t>Social rented</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>social3_03</t>
+          <t>social3_01</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>social3_04</t>
+          <t>social3_02</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>social3_05</t>
+          <t>social3_03</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>social3_06</t>
+          <t>social3_04</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>Some of the time</t>
+          <t>social3_05</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>Some other kind of accommodation</t>
+          <t>social3_06</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Somewhere else</t>
+          <t>Some of the time</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Special furniture</t>
+          <t>Some other kind of accommodation</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Specially designed/adapted bathroom/shower</t>
+          <t>Somewhere else</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>Specially designed/adapted kitchen</t>
+          <t>Special furniture</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Specially designed/adapted toilet</t>
+          <t>Specially designed/adapted bathroom/shower</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Sport / exercise (coaching or organising)</t>
+          <t>Specially designed/adapted kitchen</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>Stairlift</t>
+          <t>Specially designed/adapted toilet</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>StreamingLivePerformance</t>
+          <t>Sport / exercise (coaching or organising)</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>StreetArts</t>
+          <t>Stairlift</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Strongly agree</t>
+          <t>StreamingLivePerformance</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Strongly disagree</t>
+          <t>StreetArts</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>TakenPartInPlay</t>
+          <t>Strongly agree</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Tend to agree</t>
+          <t>Strongly disagree</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>Tend to disagree</t>
+          <t>TakenPartInPlay</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>The elderly</t>
+          <t>Tend to agree</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Theatre</t>
+          <t>Tend to disagree</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>There are places where people can meet up and socialise</t>
+          <t>The elderly</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>There are welcoming places and opportunities to meet new people</t>
+          <t>Theatre</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>This is a neighbourhood where local people take action to help improve the neighbourhood</t>
+          <t>There are places where people can meet up and socialise</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>This is a neighbourhood where most people can be trusted</t>
+          <t>There are welcoming places and opportunities to meet new people</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>This is a neighbourhood where people are kind to each other</t>
+          <t>This is a neighbourhood where local people take action to help improve the neighbourhood</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>This is a neighbourhood where people from different backgrounds get on well together</t>
+          <t>This is a neighbourhood where most people can be trusted</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Thought about and am fully prepared</t>
+          <t>This is a neighbourhood where people are kind to each other</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>Thought about and have made some preparations</t>
+          <t>This is a neighbourhood where people from different backgrounds get on well together</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Thought about but haven't done anything</t>
+          <t>Thought about and am fully prepared</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Threatened with homelessness</t>
+          <t>Thought about and have made some preparations</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>Through floor lift</t>
+          <t>Thought about but haven't done anything</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>To avoid violence/discrimination</t>
+          <t>Threatened with homelessness</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>To be close to work/employment</t>
+          <t>Through floor lift</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>To be near family/friends</t>
+          <t>To avoid violence/discrimination</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>To buy own house/flat or rent place of own</t>
+          <t>To be close to work/employment</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>To learn something new</t>
+          <t>To be near family/friends</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>To move to a different area - Anti-social/safety concerns in current area</t>
+          <t>To buy own house/flat or rent place of own</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>To move to a different area - For work opportunities</t>
+          <t>To learn something new</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>To move to a different area - Other reason (specify)</t>
+          <t>To move to a different area - Anti-social/safety concerns in current area</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>To move to a different area - School catchment area</t>
+          <t>To move to a different area - For work opportunities</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>To move to a different area - To a better area</t>
+          <t>To move to a different area - Other reason (specify)</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>To move to a different area - To be nearer family and friends</t>
+          <t>To move to a different area - School catchment area</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>To move to a different property - Bigger/smaller</t>
+          <t>To move to a different area - To a better area</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>To move to a different property - Need adaptations</t>
+          <t>To move to a different area - To be nearer family and friends</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>To move to a different property - Need ground floor access</t>
+          <t>To move to a different property - Bigger/smaller</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>To move to a different property - Other reason (specify)</t>
+          <t>To move to a different property - Need adaptations</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>To move to my own property away from parents/partner etc</t>
+          <t>To move to a different property - Need ground floor access</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>Toilet difficult to access/use</t>
+          <t>To move to a different property - Other reason (specify)</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Too small/need more rooms</t>
+          <t>To move to my own property away from parents/partner etc</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Took part in a consultation or a survey</t>
+          <t>Toilet difficult to access/use</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>TorchAll</t>
+          <t>Too small/need more rooms</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>TorchBase</t>
+          <t>Took part in a consultation or a survey</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>TorchDon't know</t>
+          <t>TorchAll</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>TorchNo</t>
+          <t>TorchBase</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>TorchYes</t>
+          <t>TorchDon't know</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>Trade union activities</t>
+          <t>TorchNo</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Trade Unions, justice and human rights</t>
+          <t>TorchYes</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>Two or more</t>
+          <t>Trade union activities</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>Unable to work because of short-term illness or injury</t>
+          <t>Trade Unions, justice and human rights</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Unable to work due to short term ill-health</t>
+          <t>Two or more</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>Understanding the benefits for me</t>
+          <t>Unable to work because of short-term illness or injury</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Unemployed and seeking work</t>
+          <t>Unable to work due to short term ill-health</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>Use a search engine</t>
+          <t>Understanding the benefits for me</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>Use public services online</t>
+          <t>Unemployed and seeking work</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Use social media</t>
+          <t>Use a search engine</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>Vandalism</t>
+          <t>Use public services online</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Use social media</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>Very good</t>
+          <t>Vandalism</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>Very poor</t>
+          <t>Very dissatisfied</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Very satisfied</t>
+          <t>Very good</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>Very strongly</t>
+          <t>Very poor</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Very/fairly dissatisfied</t>
+          <t>Very satisfied</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Very/fairly good</t>
+          <t>Very strongly</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>Very/fairly satisfied</t>
+          <t>Very/fairly dissatisfied</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>ViewedCulturalContentOnline</t>
+          <t>Very/fairly good</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>ViewedPerformancesOnline</t>
+          <t>Very/fairly satisfied</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>vol6_01</t>
+          <t>ViewedCulturalContentOnline</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>vol6_02</t>
+          <t>ViewedPerformancesOnline</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>vol6_03</t>
+          <t>vol6_01</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>vol6_04</t>
+          <t>vol6_02</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>vol6_05</t>
+          <t>vol6_03</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>vol6_06</t>
+          <t>vol6_04</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>vol6_07</t>
+          <t>vol6_05</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>vol6_08</t>
+          <t>vol6_06</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>vol6_09</t>
+          <t>vol6_07</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>vol6_10</t>
+          <t>vol6_08</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>vol6_11</t>
+          <t>vol6_09</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>vol6_12</t>
+          <t>vol6_10</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>vol6_13</t>
+          <t>vol6_11</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>vol6_14</t>
+          <t>vol6_12</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>voliv1_01</t>
+          <t>vol6_13</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>voliv1_02</t>
+          <t>vol6_14</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>voliv1_03</t>
+          <t>voliv1_01</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>voliv1_04</t>
+          <t>voliv1_02</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>voliv1_05</t>
+          <t>voliv1_03</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>voliv1_06</t>
+          <t>voliv1_04</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>voliv1_07</t>
+          <t>voliv1_05</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>voliv1_08</t>
+          <t>voliv1_06</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>voliv1_09</t>
+          <t>voliv1_07</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>voliv1_10</t>
+          <t>voliv1_08</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>voliv1_11</t>
+          <t>voliv1_09</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>voliv1_12</t>
+          <t>voliv1_10</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>voliv1_13</t>
+          <t>voliv1_11</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>Waiting lists are too long</t>
+          <t>voliv1_12</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Wanted a garden/land</t>
+          <t>voliv1_13</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>Where you live</t>
+          <t>Waiting lists are too long</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Wanted a garden/land</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>Widowed/Bereaved civil partner</t>
+          <t>Where you live</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Wildlife protection</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Woman/Girl</t>
+          <t>Widowed/Bereaved civil partner</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>WomenInWork</t>
+          <t>Wildlife protection</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>WouldHelpNeigh</t>
+          <t>Woman/Girl</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>WomenInWork</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Yes – in the next six months</t>
+          <t>WouldHelpNeigh</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Yes – more than 5 years</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>Yes – over 1 year, less than 2 years</t>
+          <t>Yes – in the next six months</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Yes – over 2 years, less than 3 years</t>
+          <t>Yes – more than 5 years</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>Yes – over 3 years, less than 4 years</t>
+          <t>Yes – over 1 year, less than 2 years</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Yes – over 4 years, less than 5 years</t>
+          <t>Yes – over 2 years, less than 3 years</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Yes – over 6 months to less than 1 year</t>
+          <t>Yes – over 3 years, less than 4 years</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Yes, on a housing list</t>
+          <t>Yes – over 4 years, less than 5 years</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Your accent</t>
+          <t>Yes – over 6 months to less than 1 year</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>Your age</t>
+          <t>Yes, on a housing list</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Your ethnicity</t>
+          <t>Your accent</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Your language</t>
+          <t>Your age</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>Your mental ill-health</t>
+          <t>Your ethnicity</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Your nationality</t>
+          <t>Your language</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>Your religious belief or faith</t>
+          <t>Your mental ill-health</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Your sex or gender</t>
+          <t>Your nationality</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Your sexual orientation</t>
+          <t>Your religious belief or faith</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>Your social or educational background</t>
+          <t>Your sex or gender</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Your trans status, including non-binary identities</t>
+          <t>Your sexual orientation</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
+        <is>
+          <t>Your social or educational background</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>Your trans status, including non-binary identities</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
         <is>
           <t>Youth / children</t>
         </is>
